--- a/results/FrequencyTables/27194423_gRNA-Gag-D.xlsx
+++ b/results/FrequencyTables/27194423_gRNA-Gag-D.xlsx
@@ -465,73 +465,73 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.111111111111111</v>
+        <v>0.0995906397018391</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0.968106555874626</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.000488788415714548</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0.993890144803568</v>
       </c>
       <c r="F2">
-        <v>0.0303030303030303</v>
+        <v>0.00837050161911163</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>0.955398057066048</v>
       </c>
       <c r="H2">
-        <v>0.0202020202020202</v>
+        <v>0.0231563511944767</v>
       </c>
       <c r="I2">
-        <v>0.333333333333333</v>
+        <v>0.276348750534612</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.000244394207857274</v>
       </c>
       <c r="K2">
-        <v>0.707070707070707</v>
+        <v>0.95246532657176</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.991996089692674</v>
       </c>
       <c r="M2">
-        <v>0.848484848484849</v>
+        <v>0.874198081505468</v>
       </c>
       <c r="N2">
-        <v>0.98989898989899</v>
+        <v>0.943606036536934</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.000855379727500458</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.999205718824464</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>6.10985519643184e-05</v>
       </c>
       <c r="R2">
-        <v>1</v>
+        <v>0.999022423168571</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>6.10985519643184e-05</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>0.00403250442964502</v>
       </c>
       <c r="U2">
-        <v>1</v>
+        <v>0.995295411498747</v>
       </c>
       <c r="V2">
-        <v>1</v>
+        <v>0.988024683814994</v>
       </c>
       <c r="W2">
-        <v>0.121212121212121</v>
+        <v>0.0887761960041547</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>0.000733182623571821</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -539,73 +539,73 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.161616161616162</v>
+        <v>0.0530946416569927</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.000305492759821592</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.00122197103928637</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.00128306959125069</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>0.00775951609946844</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0152135394391153</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.0389197776012708</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>6.10985519643184e-05</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.000549886967678866</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.000916478279464777</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.00378811022178774</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.00409360298160934</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.000610985519643184</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>6.10985519643184e-05</v>
       </c>
       <c r="Q3">
-        <v>0.777777777777778</v>
+        <v>0.917883546159956</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>6.10985519643184e-05</v>
       </c>
       <c r="S3">
-        <v>1</v>
+        <v>0.999450113032321</v>
       </c>
       <c r="T3">
-        <v>1</v>
+        <v>0.985702938840349</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>0.00342151891000183</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>0.000366591311785911</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>0.000183295655892955</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>0.000122197103928637</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -613,73 +613,73 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.727272727272727</v>
+        <v>0.774668540355594</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.027433249831979</v>
       </c>
       <c r="D4">
-        <v>0.0101010101010101</v>
+        <v>0.000549886967678866</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.00354371601393047</v>
       </c>
       <c r="F4">
-        <v>0.96969696969697</v>
+        <v>0.982709109794098</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.00879819148286186</v>
       </c>
       <c r="H4">
-        <v>0.808080808080808</v>
+        <v>0.547381927048329</v>
       </c>
       <c r="I4">
-        <v>0.666666666666667</v>
+        <v>0.717358098613063</v>
       </c>
       <c r="J4">
-        <v>0.0101010101010101</v>
+        <v>0.000244394207857274</v>
       </c>
       <c r="K4">
-        <v>0.212121212121212</v>
+        <v>0.0430133805828802</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.00348261746196615</v>
       </c>
       <c r="M4">
-        <v>0.151515151515152</v>
+        <v>0.117309219771491</v>
       </c>
       <c r="N4">
-        <v>0.0101010101010101</v>
+        <v>0.0543777112482434</v>
       </c>
       <c r="O4">
-        <v>0.98989898989899</v>
+        <v>0.998961324616607</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.000733182623571821</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>0.000672084071607503</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>6.10985519643184e-05</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>6.10985519643184e-05</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>0.000733182623571821</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>0.0106922465937557</v>
       </c>
       <c r="W4">
-        <v>0.878787878787879</v>
+        <v>0.905724934319057</v>
       </c>
       <c r="X4">
-        <v>1</v>
+        <v>0.9991446202725</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -687,70 +687,70 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.068308181096108</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.00311602615018024</v>
       </c>
       <c r="D5">
-        <v>0.98989898989899</v>
+        <v>0.997678255025356</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.000366591311785911</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>0.000183295655892955</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0197348322844749</v>
       </c>
       <c r="H5">
-        <v>0.171717171717172</v>
+        <v>0.384065497647706</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.000427689863750229</v>
       </c>
       <c r="J5">
-        <v>0.98989898989899</v>
+        <v>0.998900226064642</v>
       </c>
       <c r="K5">
-        <v>0.0808080808080808</v>
+        <v>0.00183295655892955</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.000183295655892955</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.000122197103928637</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.10985519643184e-05</v>
       </c>
       <c r="O5">
-        <v>0.0101010101010101</v>
+        <v>6.10985519643184e-05</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.222222222222222</v>
+        <v>0.0799169059693285</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>6.10985519643184e-05</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>0.000366591311785911</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>0.00947027555446936</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>0.000122197103928637</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>0.000427689863750229</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>0.00201625221482251</v>
       </c>
       <c r="X5">
         <v>0</v>
